--- a/Score Uträkning Modeller/Score Calculator.xlsx
+++ b/Score Uträkning Modeller/Score Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nystartfinansab-my.sharepoint.com/personal/andreas_nilsson_nstart_com/Documents/Skrivbordet/Repository Homes/Data-PD-Modelling/Score Uträkning Modeller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nystartfinansab-my.sharepoint.com/personal/andreas_nilsson_nstart_com/Documents/Skrivbordet/Repository Homes/Admission-Scorecard-DATA-196/Score Uträkning Modeller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{6A328F4B-0A98-2B46-A949-3FA8376C1D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF35898-2E28-1346-A7E3-1F17C76F723B}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{6A328F4B-0A98-2B46-A949-3FA8376C1D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0D9AF0-9FB1-9F4F-8D17-7417DFD6FCFF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{B88B70AD-B794-914A-8A46-59AD3BA46084}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{B88B70AD-B794-914A-8A46-59AD3BA46084}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91696900-2F42-0E49-9489-6DB33B18DB0B}">
-  <dimension ref="B3:I35"/>
+  <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,10 +579,10 @@
         <v>0.2</v>
       </c>
       <c r="E9" s="4">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -599,11 +599,11 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ref="E11:G11" si="0">E6*E9</f>
-        <v>-0.4416824895</v>
+        <v>-1.2619499699999999</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.23777785639999999</v>
+        <v>1.3587306080000001</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(C11:G11)</f>
-        <v>5.0803956900000002E-2</v>
+        <v>0.35148922800000015</v>
       </c>
     </row>
     <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="D16" s="2">
         <f>1/(1+EXP((-1)*SUM(C11:G11)))</f>
-        <v>0.51269825811431757</v>
+        <v>0.58697866618334316</v>
       </c>
     </row>
     <row r="17" spans="3:9" hidden="1" x14ac:dyDescent="0.2"/>
@@ -654,25 +654,16 @@
       </c>
       <c r="D25" s="10">
         <f>1/(1+EXP(-(C21 + (D21*D16))))</f>
-        <v>8.3009915998139824E-2</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.72199999999999998</v>
-      </c>
+        <v>0.10712369020779398</v>
+      </c>
+      <c r="G25" s="9"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G35" s="2">
-        <f>313/0.7</f>
-        <v>447.14285714285717</v>
-      </c>
-      <c r="H35" s="2">
-        <f>4.5*G35</f>
-        <v>2012.1428571428573</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K008000 INTERN&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>